--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4192956.850169029</v>
+        <v>4185939.835277317</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800618</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7270392.649804331</v>
+        <v>7270392.64980433</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>314.6536463267108</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>193.5951683370114</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>160.1644722355976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>14.19510348422575</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>78.10432502481414</v>
+        <v>88.38578611255868</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -955,7 +955,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1059,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>14.48345164522491</v>
+        <v>14.46389722690851</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1138,13 +1138,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>60.46179076613138</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>135.0569949732958</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1293,28 +1293,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>152.6509495310451</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>1.225998096216904</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,13 +1536,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>26.97444673954876</v>
       </c>
       <c r="U13" t="n">
-        <v>6.661291090489334</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>106.4942921985362</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>154.0677550156944</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y22" t="n">
-        <v>127.6304836933398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>101.0041688483411</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>173.8065142497632</v>
       </c>
     </row>
     <row r="26">
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2775,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>73.04607632044174</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2809,7 +2809,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I29" t="n">
         <v>81.77913505274077</v>
@@ -2952,10 +2952,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>118.995544662309</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
@@ -3012,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>106.7810959174222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3189,22 +3189,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>53.1501529963744</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>100.6147642211986</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3483,13 +3483,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>81.90355835744658</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>111.9679966130648</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>79.44714357246731</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>127.4321567831319</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1191.835263233623</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="C2" t="n">
-        <v>1191.835263233623</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="D2" t="n">
-        <v>1191.835263233623</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E2" t="n">
-        <v>806.0470106353782</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.514423990285</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2147.451536646714</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1951.900861558824</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1578.435103297744</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1578.435103297744</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>247.5125998356232</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>247.5125998356232</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>247.5125998356232</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="W4" t="n">
-        <v>409.2948950230955</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X4" t="n">
-        <v>409.2948950230955</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y4" t="n">
-        <v>409.2948950230955</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>983.0286321745434</v>
+        <v>1745.334734821698</v>
       </c>
       <c r="C5" t="n">
-        <v>614.0661152341316</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D5" t="n">
-        <v>614.0661152341316</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>228.2778626358874</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F5" t="n">
         <v>221.3323618866839</v>
@@ -4567,7 +4567,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2563.227143947893</v>
+        <v>2607.870519187355</v>
       </c>
       <c r="T5" t="n">
-        <v>2344.592476919956</v>
+        <v>2389.235852159418</v>
       </c>
       <c r="U5" t="n">
-        <v>2090.830691558047</v>
+        <v>2135.474066797509</v>
       </c>
       <c r="V5" t="n">
-        <v>1759.767804214477</v>
+        <v>2135.474066797509</v>
       </c>
       <c r="W5" t="n">
-        <v>1759.767804214477</v>
+        <v>2135.474066797509</v>
       </c>
       <c r="X5" t="n">
-        <v>1759.767804214477</v>
+        <v>2135.474066797509</v>
       </c>
       <c r="Y5" t="n">
-        <v>1369.628472238665</v>
+        <v>1745.334734821698</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>68.57273095695527</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>68.57273095695527</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D7" t="n">
-        <v>68.57273095695527</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E7" t="n">
-        <v>68.57273095695527</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="F7" t="n">
-        <v>68.57273095695527</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="G7" t="n">
-        <v>68.57273095695527</v>
+        <v>114.2095034521276</v>
       </c>
       <c r="H7" t="n">
-        <v>68.57273095695527</v>
+        <v>114.2095034521276</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>323.2572191628421</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>323.2572191628421</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>68.57273095695527</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>68.57273095695527</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>68.57273095695527</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>68.57273095695527</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1001.280783616703</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C8" t="n">
-        <v>632.3182666762915</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D8" t="n">
-        <v>632.3182666762915</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762915</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224076</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2267.209817970484</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="V8" t="n">
-        <v>2267.209817970484</v>
+        <v>2305.013687749267</v>
       </c>
       <c r="W8" t="n">
-        <v>1914.44116270037</v>
+        <v>1952.245032479153</v>
       </c>
       <c r="X8" t="n">
-        <v>1778.019955656637</v>
+        <v>1578.779274218073</v>
       </c>
       <c r="Y8" t="n">
-        <v>1387.880623680825</v>
+        <v>1188.639942242261</v>
       </c>
     </row>
     <row r="9">
@@ -4859,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036423</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204941</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615926</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572644</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315295</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414846</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.07275543519</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.317569050019</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>506.0980231475335</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C10" t="n">
-        <v>337.1618402196266</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="D10" t="n">
-        <v>337.1618402196266</v>
+        <v>548.5954256477206</v>
       </c>
       <c r="E10" t="n">
-        <v>337.1618402196266</v>
+        <v>400.6823320653275</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>253.7923845674171</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V10" t="n">
-        <v>726.8906022910636</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W10" t="n">
-        <v>726.8906022910636</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X10" t="n">
-        <v>726.8906022910636</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y10" t="n">
-        <v>506.0980231475335</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
@@ -5029,37 +5029,37 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805474</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5123,19 +5123,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L12" t="n">
-        <v>1206.718781115523</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M12" t="n">
-        <v>1514.038914395485</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059518</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>964.135741824786</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="U13" t="n">
-        <v>957.4071649657059</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V13" t="n">
-        <v>702.722676759819</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W13" t="n">
-        <v>413.3055067228584</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X13" t="n">
-        <v>413.3055067228584</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y13" t="n">
-        <v>413.3055067228584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5305,25 +5305,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5357,28 +5357,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1280.271174999994</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T16" t="n">
-        <v>1280.271174999994</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>991.1425362135525</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>736.4580480076656</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>447.040877970705</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>447.040877970705</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>447.040877970705</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5500,16 +5500,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
@@ -5518,7 +5518,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5527,7 +5527,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5594,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>796.3635653766202</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M18" t="n">
-        <v>1514.038914395485</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059518</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.6713633309776</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>653.6713633309776</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>503.5547239186418</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1098.712528333286</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>1098.712528333286</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>809.2953582963255</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>809.2953582963255</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>809.2953582963255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155878</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5770,7 +5770,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5779,25 +5779,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>796.3635653766202</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.683698656582</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N21" t="n">
-        <v>1443.347833878256</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>2112.811595180915</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3925.399532794549</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>3756.463349866643</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>3756.463349866643</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>3756.463349866643</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>4860.854573014292</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>4571.72593422785</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>4571.72593422785</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>4282.30876419089</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>4054.319213292873</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>3925.399532794549</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,25 +5974,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6007,7 +6007,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6068,28 +6068,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>563.1598612984388</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028584</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>862.1113288466635</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>607.4268406407766</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W25" t="n">
-        <v>318.0096706038159</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>744.8083261286786</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6226,10 +6226,10 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6256,22 +6256,22 @@
         <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>223.155231313709</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>634.0455001582217</v>
       </c>
       <c r="L27" t="n">
-        <v>796.3635653766202</v>
+        <v>880.8106280646857</v>
       </c>
       <c r="M27" t="n">
-        <v>1103.683698656582</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N27" t="n">
-        <v>1433.546326320615</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O27" t="n">
-        <v>2005.509969085868</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
         <v>2612.943493278838</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014291</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>4637.069157803797</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>4347.940519017355</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>4093.256030811468</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>4019.472115336274</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>3791.482564438257</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="29">
@@ -6445,28 +6445,28 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6487,13 +6487,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6530,34 +6530,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L30" t="n">
-        <v>638.3691419079765</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M30" t="n">
-        <v>1406.737288300438</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N30" t="n">
-        <v>1736.599915964471</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
         <v>2536.440602918915</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4040.160816087027</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="C31" t="n">
-        <v>3871.22463315912</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="D31" t="n">
-        <v>3721.107993746785</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="E31" t="n">
-        <v>3721.107993746785</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="F31" t="n">
-        <v>3721.107993746785</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="G31" t="n">
-        <v>3721.107993746785</v>
+        <v>217.414611321204</v>
       </c>
       <c r="H31" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>4660.934562929845</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>4437.14914771935</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U31" t="n">
-        <v>4148.020508932908</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V31" t="n">
-        <v>4148.020508932908</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W31" t="n">
-        <v>4148.020508932908</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="X31" t="n">
-        <v>4148.020508932908</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="Y31" t="n">
-        <v>4040.160816087027</v>
+        <v>385.5899330013834</v>
       </c>
     </row>
     <row r="32">
@@ -6688,37 +6688,37 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6779,28 +6779,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>627.7391298106764</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M33" t="n">
-        <v>1396.107276203138</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N33" t="n">
-        <v>1725.969903867171</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O33" t="n">
-        <v>2005.509969085868</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4241.487948057123</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>4072.551765129215</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>4072.551765129215</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>3924.638671546822</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>3777.748724048912</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4549.85945949167</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>4549.85945949167</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>4496.172436263009</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>4241.487948057123</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>4241.487948057123</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>4241.487948057123</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>4241.487948057123</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6928,40 +6928,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -7013,25 +7013,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>880.8106280646857</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2317.834075963124</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>514.936581693766</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C37" t="n">
-        <v>514.936581693766</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D37" t="n">
-        <v>514.936581693766</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E37" t="n">
-        <v>367.0234881113729</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F37" t="n">
-        <v>367.0234881113729</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G37" t="n">
-        <v>198.8481664311935</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>198.8481664311935</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7131,16 +7131,16 @@
         <v>986.0022165609664</v>
       </c>
       <c r="V37" t="n">
-        <v>986.0022165609664</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W37" t="n">
-        <v>696.5850465240057</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X37" t="n">
-        <v>696.5850465240057</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="Y37" t="n">
-        <v>696.5850465240057</v>
+        <v>359.1696912903951</v>
       </c>
     </row>
     <row r="38">
@@ -7153,52 +7153,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7250,25 +7250,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1208.995055864553</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1818.397748747283</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2317.834075963124</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>210.3160779381291</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>210.3160779381291</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>210.3160779381291</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1164.055751909234</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>909.3712637033467</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>619.9540936663861</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X40" t="n">
-        <v>391.9645427683688</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>391.9645427683688</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7396,22 +7396,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514083</v>
@@ -7429,10 +7429,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7447,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7487,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7496,16 +7496,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1088.787142923176</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1396.107276203138</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1725.969903867171</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2005.509969085868</v>
+        <v>2227.840212610278</v>
       </c>
       <c r="P42" t="n">
         <v>2525.810590821615</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>646.9375622247744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>478.0013792968675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>327.8847398845318</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>327.8847398845318</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>327.8847398845318</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>874.9271131227918</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V43" t="n">
-        <v>874.9271131227918</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W43" t="n">
-        <v>874.9271131227918</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X43" t="n">
-        <v>646.9375622247744</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y43" t="n">
-        <v>646.9375622247744</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="44">
@@ -7627,52 +7627,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7724,28 +7724,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>225.9364417462777</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>225.9364417462777</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>964.1357418247858</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V46" t="n">
-        <v>964.1357418247858</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W46" t="n">
-        <v>674.7185717878251</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X46" t="n">
-        <v>446.7290208898078</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.9364417462777</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8072,13 +8072,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627887</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,10 +8771,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>288.409182577675</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9017,19 +9017,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>230.7151863772034</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>169.2863157167183</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9184,7 +9184,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9242,16 +9242,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>414.5002179180839</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445217</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>127.6461250100648</v>
       </c>
       <c r="N21" t="n">
-        <v>9.900512684485989</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>360.5026862907258</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298203</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>85.30006332127837</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9968,13 +9968,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>295.3773510571273</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,16 +10190,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>104.874910276575</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>127.646125010065</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10369,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599059</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10427,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>94.13752431970619</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>127.646125010065</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>349.7653003338569</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>297.3877236703349</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>169.2863157167187</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11153,10 +11153,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>93.88676507992642</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11384,19 +11384,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>145.2351313103795</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,13 +23424,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>194.5731143188405</v>
       </c>
       <c r="U13" t="n">
-        <v>279.576061308088</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>91.42651778506702</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>25.76422516624285</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23910,7 +23910,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,13 +24138,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24177,25 +24177,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.95416965875499</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>185.2331835502363</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>44.77813910233164</v>
       </c>
     </row>
     <row r="26">
@@ -24621,7 +24621,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>213.4769220161493</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24840,10 +24840,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>29.91828370522717</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>111.8035574346726</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25077,22 +25077,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>233.0871994022029</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25320,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>9.804481243073411</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25371,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>143.8060970315906</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25557,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>34.46596603350436</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>61.34209567542521</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>87.04642489091027</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>21.18331623508048</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>620352.918524312</v>
+        <v>620352.9185243121</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>620352.9185243122</v>
+        <v>620352.9185243121</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>620352.918524312</v>
+        <v>620352.9185243121</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>620352.9185243122</v>
+        <v>620352.9185243121</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>620352.9185243122</v>
+        <v>620352.9185243121</v>
       </c>
     </row>
   </sheetData>
@@ -26319,43 +26319,43 @@
         <v>800515.7256176763</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.7256176765</v>
       </c>
       <c r="E2" t="n">
+        <v>762506.6664885327</v>
+      </c>
+      <c r="F2" t="n">
+        <v>762506.6664885322</v>
+      </c>
+      <c r="G2" t="n">
         <v>762506.6664885326</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>762506.6664885322</v>
+      </c>
+      <c r="I2" t="n">
+        <v>762506.6664885323</v>
+      </c>
+      <c r="J2" t="n">
+        <v>762506.6664885323</v>
+      </c>
+      <c r="K2" t="n">
         <v>762506.6664885324</v>
       </c>
-      <c r="G2" t="n">
+      <c r="L2" t="n">
+        <v>762506.6664885322</v>
+      </c>
+      <c r="M2" t="n">
+        <v>762506.6664885321</v>
+      </c>
+      <c r="N2" t="n">
         <v>762506.6664885323</v>
-      </c>
-      <c r="H2" t="n">
-        <v>762506.6664885324</v>
-      </c>
-      <c r="I2" t="n">
-        <v>762506.6664885324</v>
-      </c>
-      <c r="J2" t="n">
-        <v>762506.6664885321</v>
-      </c>
-      <c r="K2" t="n">
-        <v>762506.6664885326</v>
-      </c>
-      <c r="L2" t="n">
-        <v>762506.6664885324</v>
-      </c>
-      <c r="M2" t="n">
-        <v>762506.6664885324</v>
-      </c>
-      <c r="N2" t="n">
-        <v>762506.6664885324</v>
       </c>
       <c r="O2" t="n">
         <v>762506.6664885322</v>
       </c>
       <c r="P2" t="n">
-        <v>762506.6664885323</v>
+        <v>762506.6664885322</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>5.19711258155959e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26435,16 +26435,16 @@
         <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.66962143914</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
+        <v>15045.6696214391</v>
+      </c>
+      <c r="K4" t="n">
         <v>15045.66962143915</v>
-      </c>
-      <c r="K4" t="n">
-        <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
         <v>15045.6696214391</v>
@@ -26475,43 +26475,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="N5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="O5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="P5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="O5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="P5" t="n">
-        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29086.18991150023</v>
+        <v>-29086.18991150035</v>
       </c>
       <c r="C6" t="n">
         <v>560881.6893030442</v>
       </c>
       <c r="D6" t="n">
-        <v>560881.6893030441</v>
+        <v>560881.6893030445</v>
       </c>
       <c r="E6" t="n">
-        <v>130313.6344414807</v>
+        <v>129339.0431817593</v>
       </c>
       <c r="F6" t="n">
-        <v>655473.6709183768</v>
+        <v>654499.0796586549</v>
       </c>
       <c r="G6" t="n">
-        <v>655473.6709183767</v>
+        <v>654499.0796586552</v>
       </c>
       <c r="H6" t="n">
-        <v>655473.6709183767</v>
+        <v>654499.0796586549</v>
       </c>
       <c r="I6" t="n">
-        <v>655473.6709183768</v>
+        <v>654499.079658655</v>
       </c>
       <c r="J6" t="n">
-        <v>479050.4517257834</v>
+        <v>478075.8604660621</v>
       </c>
       <c r="K6" t="n">
-        <v>655473.6709183769</v>
+        <v>654499.079658655</v>
       </c>
       <c r="L6" t="n">
-        <v>655473.6709183768</v>
+        <v>654499.0796586549</v>
       </c>
       <c r="M6" t="n">
-        <v>520672.6556845396</v>
+        <v>519698.0644248176</v>
       </c>
       <c r="N6" t="n">
-        <v>655473.6709183768</v>
+        <v>654499.079658655</v>
       </c>
       <c r="O6" t="n">
-        <v>655473.6709183765</v>
+        <v>654499.0796586549</v>
       </c>
       <c r="P6" t="n">
-        <v>655473.6709183767</v>
+        <v>654499.0796586549</v>
       </c>
     </row>
   </sheetData>
@@ -26703,13 +26703,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26925,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27162,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>68.08019533676975</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>155.6458003804016</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.66750794633973</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27545,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>132.4700884959321</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>96.31138778415736</v>
+        <v>86.02992669641283</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27675,7 +27675,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27779,25 +27779,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>120.4821701471133</v>
+        <v>120.5017245654297</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,22 +27818,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27858,13 +27858,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>190.7623767421579</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>234.6741057051732</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,28 +28013,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>14.65885272800577</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28070,7 +28070,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>250.9116452276111</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29289,13 +29289,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29529,7 +29529,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307152</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>537.6668875336993</v>
+        <v>483.6693559063411</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
@@ -35734,22 +35734,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>563.9097597752163</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>257.2993485017925</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35904,7 +35904,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
         <v>59.8253897034981</v>
@@ -35962,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>724.9245949685502</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980129</v>
@@ -35983,7 +35983,7 @@
         <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N21" t="n">
-        <v>343.0950860824988</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36378,7 +36378,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
         <v>59.82538970349808</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>609.76039124675</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504662</v>
@@ -36454,13 +36454,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>127.210242276185</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
@@ -36688,13 +36688,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>577.7410532982354</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>10.73738595686864</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>354.1326152325993</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>438.0705020605312</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980128</v>
@@ -36928,7 +36928,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
         <v>88.0130327850741</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
         <v>528.689756130333</v>
@@ -37089,7 +37089,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R32" t="n">
         <v>59.82538970349808</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>343.3952292757305</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>410.0098272511731</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
         <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
         <v>528.689756130333</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>599.0230052898812</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504662</v>
@@ -37402,7 +37402,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504662</v>
@@ -37639,7 +37639,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>504.4811386018595</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,7 +37864,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>418.5440206727429</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504662</v>
@@ -37873,10 +37873,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>300.9801800114511</v>
       </c>
       <c r="Q42" t="n">
         <v>88.0130327850741</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38104,19 +38104,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>455.6595083608457</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4185939.835277317</v>
+        <v>4190879.098126349</v>
       </c>
     </row>
     <row r="7">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>314.6536463267108</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>319.6212820335858</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>14.19510348422575</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>43.31785343913981</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>88.38578611255868</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>240.3171023574192</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>30.60408762095418</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1068,16 +1068,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>14.46389722690851</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>60.46179076613138</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>6.283679164003455</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>101.7806877295491</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>152.6509495310451</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206838</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>26.97444673954876</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>123.3771255379762</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1770,10 +1770,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>46.18719652447367</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2140,7 +2140,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>173.8065142497632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>122.2151751544597</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2809,7 +2809,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
         <v>81.77913505274077</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>118.995544662309</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3009,13 +3009,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>81.90355835744658</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>143.3158222056514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417103</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>118.4898845065121</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>157.2425576766696</v>
       </c>
     </row>
     <row r="44">
@@ -4137,19 +4137,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>105.0903281190973</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>224.895256723152</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>228.2778626358874</v>
+        <v>390.7161657136784</v>
       </c>
       <c r="C2" t="n">
-        <v>228.2778626358874</v>
+        <v>390.7161657136784</v>
       </c>
       <c r="D2" t="n">
-        <v>228.2778626358874</v>
+        <v>390.7161657136784</v>
       </c>
       <c r="E2" t="n">
-        <v>228.2778626358874</v>
+        <v>390.7161657136784</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="Y2" t="n">
-        <v>546.109828622464</v>
+        <v>777.3160057778002</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4421,13 +4421,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4494,37 +4494,37 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>684.3735766921516</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>684.3735766921516</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>684.3735766921516</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>684.3735766921516</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>684.3735766921516</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
         <v>684.3735766921516</v>
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1745.334734821698</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>1376.372217881286</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>1018.106519274536</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2607.870519187355</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2389.235852159418</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2135.474066797509</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="V5" t="n">
-        <v>2135.474066797509</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="W5" t="n">
-        <v>2135.474066797509</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="X5" t="n">
-        <v>2135.474066797509</v>
+        <v>1982.008090792599</v>
       </c>
       <c r="Y5" t="n">
-        <v>1745.334734821698</v>
+        <v>1591.868758816787</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064344</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>578.0123447940987</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>430.0992512117056</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>283.2093037137952</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>114.2095034521276</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>114.2095034521276</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>802.0401021781393</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C8" t="n">
-        <v>433.0775852377275</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097703</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>74.81188663097701</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2636.076575092838</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2305.013687749267</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="W8" t="n">
-        <v>1952.245032479153</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="X8" t="n">
-        <v>1578.779274218073</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y8" t="n">
-        <v>1188.639942242261</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.7120650600564</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C10" t="n">
-        <v>698.7120650600564</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="D10" t="n">
-        <v>548.5954256477206</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>400.6823320653275</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>253.7923845674171</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600564</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="11">
@@ -5026,67 +5026,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805474</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,7 +5117,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
         <v>263.5382936126482</v>
@@ -5126,22 +5126,22 @@
         <v>412.6079778147081</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619858</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1271.749344574921</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1271.749344574921</v>
+        <v>1150.507496218139</v>
       </c>
       <c r="V13" t="n">
-        <v>1017.064856369034</v>
+        <v>895.8230080122524</v>
       </c>
       <c r="W13" t="n">
-        <v>727.647686332073</v>
+        <v>895.8230080122524</v>
       </c>
       <c r="X13" t="n">
-        <v>499.6581354340557</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="Y13" t="n">
-        <v>278.8655562905255</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="14">
@@ -5254,64 +5254,64 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
         <v>3931.29497012173</v>
@@ -5323,7 +5323,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528587</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P15" t="n">
-        <v>2358.217138262064</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>291.7839189057837</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>143.8708253233906</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>143.8708253233906</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>143.8708253233906</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>441.9005583181194</v>
       </c>
     </row>
     <row r="17">
@@ -5494,46 +5494,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5542,22 +5542,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5700,19 +5700,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
         <v>97.21709146028584</v>
@@ -5752,10 +5752,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5831,16 +5831,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>1288.32563221405</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M21" t="n">
-        <v>1722.015429253975</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
         <v>2051.878056918008</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336712</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="23">
@@ -5980,16 +5980,16 @@
         <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514083</v>
@@ -6077,7 +6077,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>563.1598612984388</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>1209.787631771461</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>920.3704617344999</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>920.3704617344999</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>744.8083261286786</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6223,37 +6223,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6293,34 +6293,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>223.155231313709</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>634.0455001582217</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>880.8106280646857</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2317.834075963124</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028583</v>
+        <v>973.0255547109412</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028583</v>
+        <v>804.0893717830343</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028583</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028583</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028583</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028583</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028583</v>
+        <v>1375.466598684711</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028583</v>
+        <v>1154.674019541181</v>
       </c>
     </row>
     <row r="29">
@@ -6442,31 +6442,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155877</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6481,31 +6481,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6530,25 +6530,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1288.325632214049</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M30" t="n">
         <v>1722.015429253975</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>385.5899330013834</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>385.5899330013834</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>385.5899330013834</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>385.5899330013834</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>385.5899330013834</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>217.414611321204</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>675.007103038344</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>675.007103038344</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>385.5899330013834</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>385.5899330013834</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>385.5899330013834</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6688,43 +6688,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6785,13 +6785,13 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1288.32563221405</v>
+        <v>1024.771599890052</v>
       </c>
       <c r="M33" t="n">
-        <v>1595.645765494011</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N33" t="n">
-        <v>1925.508393158044</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O33" t="n">
         <v>2331.418122136705</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V34" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W34" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6931,7 +6931,7 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028587</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028587</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V37" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W37" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7359,19 +7359,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
         <v>97.21709146028587</v>
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F41" t="n">
         <v>904.3190116155888</v>
@@ -7405,19 +7405,19 @@
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7435,28 +7435,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7478,25 +7478,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M42" t="n">
         <v>1228.513823643586</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7614,7 +7614,7 @@
         <v>437.6964226305959</v>
       </c>
       <c r="Y43" t="n">
-        <v>216.9038434870658</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="44">
@@ -7627,46 +7627,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="U46" t="n">
-        <v>1271.749344574921</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="V46" t="n">
-        <v>1017.064856369034</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="W46" t="n">
-        <v>727.647686332073</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="X46" t="n">
-        <v>499.6581354340557</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="Y46" t="n">
-        <v>278.8655562905255</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992669</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>327.4218609627887</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,10 +8774,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>234.4116509503169</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>223.6742649934479</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>124.3400780863226</v>
       </c>
       <c r="Q15" t="n">
-        <v>169.2863157167183</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9251,7 +9251,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>127.6461250100647</v>
+        <v>127.6461250100648</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,19 +9479,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>127.6461250100648</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298203</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>85.30006332127837</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10199,7 +10199,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>127.646125010065</v>
+        <v>127.6461250100648</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10369,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10433,7 +10433,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>104.6241510367947</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10442,7 +10442,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>127.646125010065</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23466,19 +23466,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>194.5731143188405</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>162.8602268606011</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23658,10 +23658,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,7 +23670,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>102.7266318430624</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23703,7 +23703,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24414,25 +24414,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>44.77813910233164</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>103.4944802345775</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24852,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>29.91828370522717</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25329,10 +25329,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>143.8060970315906</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>61.34209567542521</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>61.34209567542518</v>
       </c>
     </row>
     <row r="44">
@@ -26025,19 +26025,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>92.830481864506</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>61.3420956754253</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>620352.9185243121</v>
+        <v>620352.9185243122</v>
       </c>
     </row>
     <row r="6">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>620352.9185243121</v>
+        <v>620352.9185243122</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176763</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176763</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176765</v>
+        <v>800515.7256176762</v>
       </c>
       <c r="E2" t="n">
-        <v>762506.6664885327</v>
+        <v>762506.6664885326</v>
       </c>
       <c r="F2" t="n">
+        <v>762506.6664885324</v>
+      </c>
+      <c r="G2" t="n">
         <v>762506.6664885322</v>
       </c>
-      <c r="G2" t="n">
-        <v>762506.6664885326</v>
-      </c>
       <c r="H2" t="n">
+        <v>762506.6664885324</v>
+      </c>
+      <c r="I2" t="n">
         <v>762506.6664885322</v>
-      </c>
-      <c r="I2" t="n">
-        <v>762506.6664885323</v>
       </c>
       <c r="J2" t="n">
         <v>762506.6664885323</v>
@@ -26343,7 +26343,7 @@
         <v>762506.6664885324</v>
       </c>
       <c r="L2" t="n">
-        <v>762506.6664885322</v>
+        <v>762506.6664885321</v>
       </c>
       <c r="M2" t="n">
         <v>762506.6664885321</v>
@@ -26352,7 +26352,7 @@
         <v>762506.6664885323</v>
       </c>
       <c r="O2" t="n">
-        <v>762506.6664885322</v>
+        <v>762506.666488532</v>
       </c>
       <c r="P2" t="n">
         <v>762506.6664885322</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.976671782625058e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26426,13 +26426,13 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143906</v>
       </c>
       <c r="F4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143914</v>
       </c>
       <c r="H4" t="n">
         <v>15045.6696214391</v>
@@ -26444,7 +26444,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>15045.66962143915</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
         <v>15045.6696214391</v>
@@ -26456,7 +26456,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="O4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143915</v>
       </c>
       <c r="P4" t="n">
         <v>15045.6696214391</v>
@@ -26475,31 +26475,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="G5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="K5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="J5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871661</v>
-      </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26508,7 +26508,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29086.18991150035</v>
+        <v>-29086.18991150014</v>
       </c>
       <c r="C6" t="n">
-        <v>560881.6893030442</v>
+        <v>560881.6893030443</v>
       </c>
       <c r="D6" t="n">
-        <v>560881.6893030445</v>
+        <v>560881.6893030441</v>
       </c>
       <c r="E6" t="n">
-        <v>129339.0431817593</v>
+        <v>130216.1753155084</v>
       </c>
       <c r="F6" t="n">
-        <v>654499.0796586549</v>
+        <v>655376.2117924046</v>
       </c>
       <c r="G6" t="n">
-        <v>654499.0796586552</v>
+        <v>655376.2117924045</v>
       </c>
       <c r="H6" t="n">
-        <v>654499.0796586549</v>
+        <v>655376.2117924046</v>
       </c>
       <c r="I6" t="n">
-        <v>654499.079658655</v>
+        <v>655376.2117924044</v>
       </c>
       <c r="J6" t="n">
-        <v>478075.8604660621</v>
+        <v>478952.9925998116</v>
       </c>
       <c r="K6" t="n">
-        <v>654499.079658655</v>
+        <v>655376.2117924046</v>
       </c>
       <c r="L6" t="n">
-        <v>654499.0796586549</v>
+        <v>655376.2117924043</v>
       </c>
       <c r="M6" t="n">
-        <v>519698.0644248176</v>
+        <v>520575.1965585671</v>
       </c>
       <c r="N6" t="n">
-        <v>654499.079658655</v>
+        <v>655376.2117924045</v>
       </c>
       <c r="O6" t="n">
-        <v>654499.0796586549</v>
+        <v>655376.2117924042</v>
       </c>
       <c r="P6" t="n">
-        <v>654499.0796586549</v>
+        <v>655376.2117924044</v>
       </c>
     </row>
   </sheetData>
@@ -26737,31 +26737,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="G3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="F3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.720839728281323e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.720839728281323e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>68.08019533676975</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>87.25476370812567</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>132.4700884959321</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>243.2051448974512</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>86.02992669641283</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>129.4139983210498</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>149.2278925609831</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27788,16 +27788,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>120.5017245654297</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27861,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27909,10 +27909,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>190.7623767421579</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>321.4685793061315</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>46.8347852886633</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>14.65885272800577</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28575,7 +28575,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -29529,7 +29529,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -30471,7 +30471,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,10 +32165,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>296.2227415328944</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307152</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,16 +35494,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>483.6693559063411</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>534.0986420439142</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
@@ -35512,7 +35512,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>331.4334930178474</v>
       </c>
       <c r="Q15" t="n">
-        <v>257.2993485017925</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35974,16 +35974,16 @@
         <v>438.070502060531</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>438.070502060531</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,22 +36445,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523313</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>127.210242276185</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
@@ -36682,22 +36682,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36919,7 +36919,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>438.0705020605312</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980128</v>
@@ -37077,7 +37077,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37089,7 +37089,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
         <v>59.82538970349808</v>
@@ -37153,7 +37153,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>353.881855992819</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504662</v>
@@ -37162,7 +37162,7 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>410.0098272511731</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
         <v>207.0934149315246</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
